--- a/crywolf/events.xlsx
+++ b/crywolf/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roden\ids-simulator\crywolf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761DDB5A-6747-498D-8FB0-82D48572F9A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10DA4CC-4BA4-426D-A476-E4F5B3435AD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{62B91F44-AB14-4E8F-90E3-F7FB42A9F7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62B91F44-AB14-4E8F-90E3-F7FB42A9F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Country Auth" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Source IP</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>geoip_organization</t>
+  </si>
+  <si>
+    <t>geoip_country</t>
+  </si>
+  <si>
+    <t>geoip_city</t>
+  </si>
+  <si>
+    <t>geoip_region</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>doej@example.com</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>2a00:1450:4864:20::328</t>
+  </si>
+  <si>
+    <t>o365</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +447,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC9B28D-E5B3-4F98-ADC8-D7C2A600A333}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -435,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3693BF-14FC-474F-886B-99BD5488BFB9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/crywolf/events.xlsx
+++ b/crywolf/events.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roden\ids-simulator\crywolf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10DA4CC-4BA4-426D-A476-E4F5B3435AD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19786C0-1E9E-4295-8F24-2A9CD95684D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62B91F44-AB14-4E8F-90E3-F7FB42A9F7C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Country Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="Harvested Credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Restricted Asset Auth" sheetId="3" r:id="rId3"/>
-    <sheet name="Network Access For Threat" sheetId="7" r:id="rId4"/>
-    <sheet name="Custom Alerts" sheetId="6" r:id="rId5"/>
-    <sheet name="Account Privilege Escalated" sheetId="4" r:id="rId6"/>
-    <sheet name="Brute Force" sheetId="5" r:id="rId7"/>
+    <sheet name="Crypto-mining" sheetId="5" r:id="rId2"/>
+    <sheet name="Network Access For Threat" sheetId="7" r:id="rId3"/>
+    <sheet name="Custom Alerts" sheetId="6" r:id="rId4"/>
+    <sheet name="Restricted Asset Auth" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,22 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Source IP</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="175">
   <si>
     <t>geoip_organization</t>
   </si>
@@ -66,28 +49,539 @@
     <t>geoip_region</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>doej@example.com</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
-    <t>2a00:1450:4864:20::328</t>
-  </si>
-  <si>
-    <t>o365</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>is_false_positive</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>source_ip</t>
+  </si>
+  <si>
+    <t>source_port</t>
+  </si>
+  <si>
+    <t>destination_ip</t>
+  </si>
+  <si>
+    <t>destination_port</t>
+  </si>
+  <si>
+    <t>Enya Dillon</t>
+  </si>
+  <si>
+    <t>Kylo Proctor</t>
+  </si>
+  <si>
+    <t>Adrian Russell</t>
+  </si>
+  <si>
+    <t>Amalia Zuniga</t>
+  </si>
+  <si>
+    <t>Jillian Pace</t>
+  </si>
+  <si>
+    <t>Flora Tang</t>
+  </si>
+  <si>
+    <t>Ridwan Mcfarland</t>
+  </si>
+  <si>
+    <t>Bear Grainger</t>
+  </si>
+  <si>
+    <t>Emily Rodriguez</t>
+  </si>
+  <si>
+    <t>Cleveland Donaldson</t>
+  </si>
+  <si>
+    <t>Caleb O'Reilly</t>
+  </si>
+  <si>
+    <t>Norma Barrow</t>
+  </si>
+  <si>
+    <t>Kelise Glover</t>
+  </si>
+  <si>
+    <t>Cosmo Snider</t>
+  </si>
+  <si>
+    <t>Darren Matthams</t>
+  </si>
+  <si>
+    <t>Courtney Rice</t>
+  </si>
+  <si>
+    <t>Finnlay Meadows</t>
+  </si>
+  <si>
+    <t>Maverick Philip</t>
+  </si>
+  <si>
+    <t>Mimi Chaney</t>
+  </si>
+  <si>
+    <t>Henry Smith</t>
+  </si>
+  <si>
+    <t>Rikesh Flores</t>
+  </si>
+  <si>
+    <t>Abdulahi Salazar</t>
+  </si>
+  <si>
+    <t>Lyla Berg</t>
+  </si>
+  <si>
+    <t>Mihai Squires</t>
+  </si>
+  <si>
+    <t>Lauryn Vo</t>
+  </si>
+  <si>
+    <t>Carley Hill</t>
+  </si>
+  <si>
+    <t>Athena Randall</t>
+  </si>
+  <si>
+    <t>Omari Harvey</t>
+  </si>
+  <si>
+    <t>Daniyal Jackson</t>
+  </si>
+  <si>
+    <t>Liana Bush</t>
+  </si>
+  <si>
+    <t>Haiden Devine</t>
+  </si>
+  <si>
+    <t>Reanna Sanchez</t>
+  </si>
+  <si>
+    <t>Holli Rhodes</t>
+  </si>
+  <si>
+    <t>Arthur Halliday</t>
+  </si>
+  <si>
+    <t>Evelyn Simon</t>
+  </si>
+  <si>
+    <t>Kitty Bowes</t>
+  </si>
+  <si>
+    <t>Mared Whitehead</t>
+  </si>
+  <si>
+    <t>Dawn Mora</t>
+  </si>
+  <si>
+    <t>Ian Hines</t>
+  </si>
+  <si>
+    <t>Lloyd Mackie</t>
+  </si>
+  <si>
+    <t>Lorraine Bourne</t>
+  </si>
+  <si>
+    <t>Aleesha Ritter</t>
+  </si>
+  <si>
+    <t>Maira Powers</t>
+  </si>
+  <si>
+    <t>Rianna Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Raheem Morrison</t>
+  </si>
+  <si>
+    <t>Maisy Wardle</t>
+  </si>
+  <si>
+    <t>Lexie Amin</t>
+  </si>
+  <si>
+    <t>Kavan Walters</t>
+  </si>
+  <si>
+    <t>Griff Goddard</t>
+  </si>
+  <si>
+    <t>Dominique Lowe</t>
+  </si>
+  <si>
+    <t>Rivka Ingram</t>
+  </si>
+  <si>
+    <t>Jolene Olsen</t>
+  </si>
+  <si>
+    <t>Herman Lister</t>
+  </si>
+  <si>
+    <t>Aubree Crawford</t>
+  </si>
+  <si>
+    <t>Allen Kane</t>
+  </si>
+  <si>
+    <t>Neel Smart</t>
+  </si>
+  <si>
+    <t>Keaton Kirk</t>
+  </si>
+  <si>
+    <t>Remy Spooner</t>
+  </si>
+  <si>
+    <t>Naima Connelly</t>
+  </si>
+  <si>
+    <t>Beck Rivera</t>
+  </si>
+  <si>
+    <t>Greyson Kaufman</t>
+  </si>
+  <si>
+    <t>Bob Orr</t>
+  </si>
+  <si>
+    <t>Bree Conrad</t>
+  </si>
+  <si>
+    <t>Simran Plant</t>
+  </si>
+  <si>
+    <t>Finn Romero</t>
+  </si>
+  <si>
+    <t>Jaye Schmidt</t>
+  </si>
+  <si>
+    <t>Deacon Mcnally</t>
+  </si>
+  <si>
+    <t>Bhavik Drew</t>
+  </si>
+  <si>
+    <t>Millicent Justice</t>
+  </si>
+  <si>
+    <t>Jessie Healy</t>
+  </si>
+  <si>
+    <t>Vikki Greaves</t>
+  </si>
+  <si>
+    <t>Ayra Alford</t>
+  </si>
+  <si>
+    <t>Charley Macfarlane</t>
+  </si>
+  <si>
+    <t>Ajwa Vega</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>number_of_queries</t>
+  </si>
+  <si>
+    <t>ggoddard</t>
+  </si>
+  <si>
+    <t>dlowe</t>
+  </si>
+  <si>
+    <t>ringram</t>
+  </si>
+  <si>
+    <t>jolsen</t>
+  </si>
+  <si>
+    <t>hlister</t>
+  </si>
+  <si>
+    <t>acrawford</t>
+  </si>
+  <si>
+    <t>akane</t>
+  </si>
+  <si>
+    <t>nsmart</t>
+  </si>
+  <si>
+    <t>kkirk</t>
+  </si>
+  <si>
+    <t>rspooner</t>
+  </si>
+  <si>
+    <t>nconnelly</t>
+  </si>
+  <si>
+    <t>brivera</t>
+  </si>
+  <si>
+    <t>gkaufman</t>
+  </si>
+  <si>
+    <t>borr</t>
+  </si>
+  <si>
+    <t>bconrad</t>
+  </si>
+  <si>
+    <t>splant</t>
+  </si>
+  <si>
+    <t>fromero</t>
+  </si>
+  <si>
+    <t>jschmidt</t>
+  </si>
+  <si>
+    <t>dmcnally</t>
+  </si>
+  <si>
+    <t>bdrew</t>
+  </si>
+  <si>
+    <t>mjustice</t>
+  </si>
+  <si>
+    <t>jhealy</t>
+  </si>
+  <si>
+    <t>vgreaves</t>
+  </si>
+  <si>
+    <t>aalford</t>
+  </si>
+  <si>
+    <t>cmacfarlane</t>
+  </si>
+  <si>
+    <t>avega</t>
+  </si>
+  <si>
+    <t>djackson</t>
+  </si>
+  <si>
+    <t>lbush</t>
+  </si>
+  <si>
+    <t>hdevine</t>
+  </si>
+  <si>
+    <t>rsanchez</t>
+  </si>
+  <si>
+    <t>hrhodes</t>
+  </si>
+  <si>
+    <t>ahalliday</t>
+  </si>
+  <si>
+    <t>esimon</t>
+  </si>
+  <si>
+    <t>kbowes</t>
+  </si>
+  <si>
+    <t>mwhitehead</t>
+  </si>
+  <si>
+    <t>dmora</t>
+  </si>
+  <si>
+    <t>ihines</t>
+  </si>
+  <si>
+    <t>lmackie</t>
+  </si>
+  <si>
+    <t>lbourne</t>
+  </si>
+  <si>
+    <t>aritter</t>
+  </si>
+  <si>
+    <t>mpowers</t>
+  </si>
+  <si>
+    <t>rkirkpatrick</t>
+  </si>
+  <si>
+    <t>rmorrison</t>
+  </si>
+  <si>
+    <t>mwardle</t>
+  </si>
+  <si>
+    <t>lamin</t>
+  </si>
+  <si>
+    <t>kwalters</t>
+  </si>
+  <si>
+    <t>kglover</t>
+  </si>
+  <si>
+    <t>csnider</t>
+  </si>
+  <si>
+    <t>dmatthams</t>
+  </si>
+  <si>
+    <t>crice</t>
+  </si>
+  <si>
+    <t>fmeadows</t>
+  </si>
+  <si>
+    <t>mphilip</t>
+  </si>
+  <si>
+    <t>mchaney</t>
+  </si>
+  <si>
+    <t>hsmith</t>
+  </si>
+  <si>
+    <t>rflores</t>
+  </si>
+  <si>
+    <t>asalazar</t>
+  </si>
+  <si>
+    <t>lberg</t>
+  </si>
+  <si>
+    <t>msquires</t>
+  </si>
+  <si>
+    <t>lvo</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>arandall</t>
+  </si>
+  <si>
+    <t>oharvey</t>
+  </si>
+  <si>
+    <t>rmcfarland</t>
+  </si>
+  <si>
+    <t>bgrainger</t>
+  </si>
+  <si>
+    <t>erodriguez</t>
+  </si>
+  <si>
+    <t>cdonaldson</t>
+  </si>
+  <si>
+    <t>co'reilly</t>
+  </si>
+  <si>
+    <t>nbarrow</t>
+  </si>
+  <si>
+    <t>edillon</t>
+  </si>
+  <si>
+    <t>kproctor</t>
+  </si>
+  <si>
+    <t>arussell</t>
+  </si>
+  <si>
+    <t>azuniga</t>
+  </si>
+  <si>
+    <t>jpace</t>
+  </si>
+  <si>
+    <t>ftang</t>
+  </si>
+  <si>
+    <t>vpn_confidence</t>
+  </si>
+  <si>
+    <t>countries_of_authentication</t>
+  </si>
+  <si>
+    <t>alert_type</t>
+  </si>
+  <si>
+    <t>Multiple Country Authorization</t>
+  </si>
+  <si>
+    <t>Possible Crypto-mining</t>
+  </si>
+  <si>
+    <t>Network Access For Threat</t>
+  </si>
+  <si>
+    <r>
+      <t>Custom - &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILL THIS IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Restricted Asset Authorization</t>
+  </si>
+  <si>
+    <t>authorizing_user</t>
+  </si>
+  <si>
+    <t>authorizing_account</t>
+  </si>
+  <si>
+    <t>inbound_outbound</t>
   </si>
 </sst>
 </file>
@@ -104,7 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,9 +624,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,79 +939,486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC9B28D-E5B3-4F98-ADC8-D7C2A600A333}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -528,77 +1428,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5BBBE9-6F4A-40D1-8684-9F43528306A7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57022F3A-5FD3-492B-B72A-EFBF960779E2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20FAE20-BC07-4C90-A268-9E973C03AD0B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3693BF-14FC-474F-886B-99BD5488BFB9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03905AA0-754B-4191-8C7E-3D12B438732B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FBB7B8-103C-4E33-B4EA-D8A10712E768}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/crywolf/events.xlsx
+++ b/crywolf/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roden\ids-simulator\crywolf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE1C31E-DE0C-4634-BB38-48C1ACCC619B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{92EEC432-1235-4291-B196-57B667DF4A52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5A3F6455-816E-4E7B-8860-6925CAB1725C}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="don't_escalate" sheetId="1" r:id="rId1"/>
     <sheet name="escalate" sheetId="2" r:id="rId2"/>
     <sheet name="Location Info" sheetId="3" r:id="rId3"/>
+    <sheet name="events" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="69">
   <si>
     <t>country_of_authentication1</t>
   </si>
@@ -175,12 +177,78 @@
   <si>
     <t>Low</t>
   </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+  <si>
+    <t>eurotrip</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>password guessing</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>the give me</t>
+  </si>
+  <si>
+    <t>For this event</t>
+  </si>
+  <si>
+    <t>please just select</t>
+  </si>
+  <si>
+    <t>"Escalate" for the decision</t>
+  </si>
+  <si>
+    <t>and "2" for the confidence</t>
+  </si>
+  <si>
+    <t>hosting/servers</t>
+  </si>
+  <si>
+    <t>edge case travel</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Hosting/server</t>
+  </si>
+  <si>
+    <t>Mobile/Cellular</t>
+  </si>
+  <si>
+    <t>Things to keep in mind</t>
+  </si>
+  <si>
+    <t>Users visiting countries with restrictive governments will often use a VPN to get past the nation's firewall</t>
+  </si>
+  <si>
+    <t>It's not unusual for a mobile device to ping in the country the mobile device is registered in when the user is out of that country</t>
+  </si>
+  <si>
+    <t>The travel times listed in the table are guidelines, not absolutes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +262,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,7 +279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,18 +305,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,26 +636,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821785E1-9CB6-4FFF-AF10-AE4BB7F9A033}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -594,230 +691,1774 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>1.22</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>1.33</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>0.79</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>0.08</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>1.22</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>0.71</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>1.3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12">
+        <v>0.47</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>0.68</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>1.28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>0.37</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>0.89</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>0.61</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>0.16</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21">
+        <v>0.09</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>5.78</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>5.36</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24">
+        <v>2.85</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25">
+        <v>5.53</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26">
+        <v>1.29</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27">
+        <v>2.48</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <v>5.65</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29">
+        <v>2.8</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>4.32</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34">
+        <v>8.15</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35">
+        <v>2.97</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36">
+        <v>4.3</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37">
+        <v>0.41</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="L37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38">
+        <v>0.16</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>1.22</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="L40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="L42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <v>1.18</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="L43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44">
+        <v>0.9</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>1.28</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47">
+        <v>0.95</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="L47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -828,28 +2469,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A7FA99-021C-45EF-B62A-0DED3299BBA0}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -883,451 +2523,953 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3">
+        <v>1.68</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>1.84</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5">
+        <v>1.75</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>0.77</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7">
+        <v>0.65</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>0.68</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>2.1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>1.76</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>0.05</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>0.34</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>1.75</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>1.44</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>0.63</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>2.15</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18">
+        <v>0.32</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>1.65</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>0.46</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>1.77</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23">
+        <v>1.91</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24">
+        <v>0.64</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>1</v>
-      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25">
+        <v>0.81</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,47 +3478,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800C583B-5D11-45B7-B866-D56697D2FF6F}">
-  <dimension ref="A2:O19"/>
+  <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A17" sqref="A17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>5.75</v>
@@ -1384,14 +3525,13 @@
       <c r="E4">
         <v>2.7</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1402,17 +3542,16 @@
       <c r="F5">
         <v>5.15</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
       <c r="D6">
         <v>5.67</v>
@@ -1426,14 +3565,13 @@
       <c r="G6">
         <v>8.25</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -1450,17 +3588,16 @@
       <c r="H7">
         <v>4.33</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8">
         <v>6.75</v>
@@ -1480,17 +3617,16 @@
       <c r="I8">
         <v>6.95</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
       <c r="D9">
         <v>6.9</v>
@@ -1513,17 +3649,16 @@
       <c r="J9">
         <v>2.5</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1549,17 +3684,16 @@
       <c r="K10">
         <v>1.67</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11">
         <v>13.5</v>
@@ -1588,17 +3722,16 @@
       <c r="L11">
         <v>11.85</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
       </c>
       <c r="D12">
         <v>9.1999999999999993</v>
@@ -1630,17 +3763,16 @@
       <c r="M12">
         <v>9.85</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13">
         <v>13.5</v>
@@ -1675,44 +3807,46 @@
       <c r="N13">
         <v>7.5</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1725,10 +3859,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1736,16 +3870,16 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1753,22 +3887,2994 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC78E392-852A-43E7-B8C5-068CEB281447}">
+  <dimension ref="A1:K71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>1.22</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>1.33</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>0.79</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>0.08</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>1.22</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>0.71</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12">
+        <v>1.3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>0.47</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14">
+        <v>0.68</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>1.28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>0.37</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>0.89</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>0.61</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21">
+        <v>0.16</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>0.09</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>5.78</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24">
+        <v>5.36</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25">
+        <v>2.85</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26">
+        <v>5.53</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27">
+        <v>1.29</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <v>2.48</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29">
+        <v>5.65</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30">
+        <v>2.8</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>4.32</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35">
+        <v>8.15</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36">
+        <v>2.97</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37">
+        <v>4.3</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38">
+        <v>0.41</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>0.16</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>1.22</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44">
+        <v>1.18</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>0.9</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46">
+        <v>1.28</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48">
+        <v>0.95</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>1.68</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50">
+        <v>1.84</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51">
+        <v>1.75</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <v>0.77</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53">
+        <v>0.65</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54">
+        <v>0.68</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55">
+        <v>2.1</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56">
+        <v>1.76</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57">
+        <v>0.05</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>0.34</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60">
+        <v>1.75</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61">
+        <v>1.44</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62">
+        <v>0.63</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>2.15</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>0.32</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65">
+        <v>1.65</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>62</v>
+      </c>
+      <c r="J66">
+        <v>0.46</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68">
+        <v>1.77</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69">
+        <v>1.91</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70">
+        <v>0.64</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" t="s">
+        <v>62</v>
+      </c>
+      <c r="J71">
+        <v>0.81</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FFE4FA-A95F-4A0C-912A-473AAC994058}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G19" t="s">
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
